--- a/medicine/Enfance/Lauren_Kate/Lauren_Kate.xlsx
+++ b/medicine/Enfance/Lauren_Kate/Lauren_Kate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lauren Kate, née le 21 mars 1981 à Dallas au Texas, est une auteur américaine de romans fantastiques pour adolescents, traduite en trente langues différentes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lauren Kate est née à Dallas le 21 mars 1981 et y a grandi. Elle a étudié à l’université d’Atlanta en Géorgie. Son premier livre intitulé The Betrayal of Natalie Hargrove a été publié en novembre 2009 en Angleterre. Le lycée de Dallas l'a inspirée pour ce premier livre. Par la suite, ses études à Atlanta l’ont inspirée pour l’écriture de son deuxième roman, premier de la série de cinq livres intitulée Damnés.
 Elle vit à Los Angeles avec son mari, Jason. 
@@ -545,20 +559,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Damnés
-Damnés, Bayard Jeunesse, 2010 ((en) Fallen, 2009)
+          <t>Série Damnés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Damnés, Bayard Jeunesse, 2010 ((en) Fallen, 2009)
 Vertige, Bayard Jeunesse, 2011 ((en) Torment, 2010)
 Passion, Bayard Jeunesse, 2011 ((en) Passion, 2011)
 Volupté, Bayard Jeunesse, 2012 ((en) Rapture, 2012)
 Trahison, Bayard Jeunesse, 2016 ((en) Unforgiven, 2015)
 H.S Amours damnées, Bayard Jeunesse, 2012 ((en) Fallen In Love, 2012)
-H.S (en) Angels in the Dark, 2013
-Série Larmes
-Larmes, Bayard Jeunesse, 2014 ((en) Teardrop, 2013)
-Déluge, Bayard Jeunesse, 2015 ((en) Waterfall, 2014)
-H.S (en) Last Day of Love, 2013
-Romans indépendants
-(en) The Betrayal of Natalie Hargrove, 2009</t>
+H.S (en) Angels in the Dark, 2013</t>
         </is>
       </c>
     </row>
@@ -583,10 +596,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Larmes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Larmes, Bayard Jeunesse, 2014 ((en) Teardrop, 2013)
+Déluge, Bayard Jeunesse, 2015 ((en) Waterfall, 2014)
+H.S (en) Last Day of Love, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lauren_Kate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lauren_Kate</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Betrayal of Natalie Hargrove, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lauren_Kate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lauren_Kate</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Une adaptation cinématographique intitulée Fallen et réalisée par Scott Hicks est sortie en 2016.</t>
         </is>
